--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_64ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_64ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2502,28 +2502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>367.6901286933208</v>
+        <v>416.3871902934618</v>
       </c>
       <c r="AB2" t="n">
-        <v>503.0898554218354</v>
+        <v>569.7193234658823</v>
       </c>
       <c r="AC2" t="n">
-        <v>455.0756657114214</v>
+        <v>515.3461108403902</v>
       </c>
       <c r="AD2" t="n">
-        <v>367690.1286933208</v>
+        <v>416387.1902934618</v>
       </c>
       <c r="AE2" t="n">
-        <v>503089.8554218354</v>
+        <v>569719.3234658823</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.296897792678523e-06</v>
+        <v>4.249862277439996e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.6162109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>455075.6657114214</v>
+        <v>515346.1108403902</v>
       </c>
     </row>
     <row r="3">
@@ -2608,28 +2608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.9003140037333</v>
+        <v>215.2062638850688</v>
       </c>
       <c r="AB3" t="n">
-        <v>261.1982315472521</v>
+        <v>294.4547044777081</v>
       </c>
       <c r="AC3" t="n">
-        <v>236.2698389224791</v>
+        <v>266.3523607522157</v>
       </c>
       <c r="AD3" t="n">
-        <v>190900.3140037333</v>
+        <v>215206.2638850688</v>
       </c>
       <c r="AE3" t="n">
-        <v>261198.2315472522</v>
+        <v>294454.7044777081</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.554164801182607e-06</v>
+        <v>6.576135413816852e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.275716145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>236269.8389224791</v>
+        <v>266352.3607522157</v>
       </c>
     </row>
     <row r="4">
@@ -2714,28 +2714,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>151.9480171179395</v>
+        <v>176.3392183452955</v>
       </c>
       <c r="AB4" t="n">
-        <v>207.9019804940796</v>
+        <v>241.2750980771846</v>
       </c>
       <c r="AC4" t="n">
-        <v>188.0601072680462</v>
+        <v>218.2481413484951</v>
       </c>
       <c r="AD4" t="n">
-        <v>151948.0171179395</v>
+        <v>176339.2183452955</v>
       </c>
       <c r="AE4" t="n">
-        <v>207901.9804940796</v>
+        <v>241275.0980771846</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.010071143268264e-06</v>
+        <v>7.419681509534078e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.7890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>188060.1072680462</v>
+        <v>218248.1413484951</v>
       </c>
     </row>
     <row r="5">
@@ -2820,28 +2820,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>138.3712543449026</v>
+        <v>162.7624555722587</v>
       </c>
       <c r="AB5" t="n">
-        <v>189.3256547035191</v>
+        <v>222.6987722866243</v>
       </c>
       <c r="AC5" t="n">
-        <v>171.2566799388939</v>
+        <v>201.4447140193428</v>
       </c>
       <c r="AD5" t="n">
-        <v>138371.2543449026</v>
+        <v>162762.4555722587</v>
       </c>
       <c r="AE5" t="n">
-        <v>189325.6547035191</v>
+        <v>222698.7722866243</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.266454271543343e-06</v>
+        <v>7.894057421645385e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.561197916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>171256.6799388939</v>
+        <v>201444.7140193428</v>
       </c>
     </row>
     <row r="6">
@@ -2926,28 +2926,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>129.5022200123371</v>
+        <v>153.7228290391009</v>
       </c>
       <c r="AB6" t="n">
-        <v>177.190650655529</v>
+        <v>210.3303564637873</v>
       </c>
       <c r="AC6" t="n">
-        <v>160.2798236456549</v>
+        <v>190.2567224434528</v>
       </c>
       <c r="AD6" t="n">
-        <v>129502.2200123371</v>
+        <v>153722.8290391009</v>
       </c>
       <c r="AE6" t="n">
-        <v>177190.650655529</v>
+        <v>210330.3564637873</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.419574566653004e-06</v>
+        <v>8.177370056700935e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.439127604166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>160279.8236456549</v>
+        <v>190256.7224434528</v>
       </c>
     </row>
     <row r="7">
@@ -3032,28 +3032,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>126.9431545275528</v>
+        <v>151.1637635543166</v>
       </c>
       <c r="AB7" t="n">
-        <v>173.6892243612476</v>
+        <v>206.8289301695059</v>
       </c>
       <c r="AC7" t="n">
-        <v>157.112568562616</v>
+        <v>187.0894673604139</v>
       </c>
       <c r="AD7" t="n">
-        <v>126943.1545275528</v>
+        <v>151163.7635543166</v>
       </c>
       <c r="AE7" t="n">
-        <v>173689.2243612476</v>
+        <v>206828.9301695059</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.463269870379419e-06</v>
+        <v>8.258217808655812e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.404947916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>157112.568562616</v>
+        <v>187089.4673604139</v>
       </c>
     </row>
   </sheetData>
@@ -3329,28 +3329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.5589894026627</v>
+        <v>297.8501258008143</v>
       </c>
       <c r="AB2" t="n">
-        <v>359.2447925858294</v>
+        <v>407.5316823408355</v>
       </c>
       <c r="AC2" t="n">
-        <v>324.9589737846701</v>
+        <v>368.6374305525338</v>
       </c>
       <c r="AD2" t="n">
-        <v>262558.9894026627</v>
+        <v>297850.1258008144</v>
       </c>
       <c r="AE2" t="n">
-        <v>359244.7925858294</v>
+        <v>407531.6823408355</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.812580112011596e-06</v>
+        <v>5.361211765729117e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.589192708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>324958.9737846701</v>
+        <v>368637.4305525338</v>
       </c>
     </row>
     <row r="3">
@@ -3435,28 +3435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>148.2869252325984</v>
+        <v>171.8143494980325</v>
       </c>
       <c r="AB3" t="n">
-        <v>202.8927130605836</v>
+        <v>235.0839728972378</v>
       </c>
       <c r="AC3" t="n">
-        <v>183.5289172878505</v>
+        <v>212.6478884664216</v>
       </c>
       <c r="AD3" t="n">
-        <v>148286.9252325984</v>
+        <v>171814.3494980325</v>
       </c>
       <c r="AE3" t="n">
-        <v>202892.7130605836</v>
+        <v>235083.9728972378</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.976149913158701e-06</v>
+        <v>7.579155383233879e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.953450520833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>183528.9172878505</v>
+        <v>212647.8884664216</v>
       </c>
     </row>
     <row r="4">
@@ -3541,28 +3541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>127.7536862476217</v>
+        <v>151.2811105130558</v>
       </c>
       <c r="AB4" t="n">
-        <v>174.7982296187811</v>
+        <v>206.9894894554353</v>
       </c>
       <c r="AC4" t="n">
-        <v>158.1157319148695</v>
+        <v>187.2347030934406</v>
       </c>
       <c r="AD4" t="n">
-        <v>127753.6862476217</v>
+        <v>151281.1105130558</v>
       </c>
       <c r="AE4" t="n">
-        <v>174798.2296187811</v>
+        <v>206989.4894554353</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.404894525700578e-06</v>
+        <v>8.39640878392315e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.5693359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>158115.7319148695</v>
+        <v>187234.7030934406</v>
       </c>
     </row>
     <row r="5">
@@ -3647,28 +3647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>118.0897802207252</v>
+        <v>141.4466122855671</v>
       </c>
       <c r="AB5" t="n">
-        <v>161.5756470513438</v>
+        <v>193.533495113151</v>
       </c>
       <c r="AC5" t="n">
-        <v>146.155094069653</v>
+        <v>175.0629299655729</v>
       </c>
       <c r="AD5" t="n">
-        <v>118089.7802207252</v>
+        <v>141446.6122855671</v>
       </c>
       <c r="AE5" t="n">
-        <v>161575.6470513438</v>
+        <v>193533.495113151</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.593043772204651e-06</v>
+        <v>8.755050285284424e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.4228515625</v>
       </c>
       <c r="AH5" t="n">
-        <v>146155.094069653</v>
+        <v>175062.929965573</v>
       </c>
     </row>
     <row r="6">
@@ -3753,28 +3753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>118.0445176189609</v>
+        <v>141.4013496838029</v>
       </c>
       <c r="AB6" t="n">
-        <v>161.5137167627649</v>
+        <v>193.4715648245721</v>
       </c>
       <c r="AC6" t="n">
-        <v>146.0990743208963</v>
+        <v>175.0069102168163</v>
       </c>
       <c r="AD6" t="n">
-        <v>118044.5176189609</v>
+        <v>141401.3496838029</v>
       </c>
       <c r="AE6" t="n">
-        <v>161513.7167627648</v>
+        <v>193471.5648245721</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.607821408095371e-06</v>
+        <v>8.783218739960129e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.411458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>146099.0743208963</v>
+        <v>175006.9102168163</v>
       </c>
     </row>
   </sheetData>
@@ -4050,28 +4050,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.227289176461</v>
+        <v>128.1541741588425</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.7131075853057</v>
+        <v>175.3461948471929</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.7110145105437</v>
+        <v>158.6114001109558</v>
       </c>
       <c r="AD2" t="n">
-        <v>107227.289176461</v>
+        <v>128154.1741588425</v>
       </c>
       <c r="AE2" t="n">
-        <v>146713.1075853057</v>
+        <v>175346.1948471928</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.545980895901114e-06</v>
+        <v>9.681749611729786e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.859049479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>132711.0145105437</v>
+        <v>158611.4001109558</v>
       </c>
     </row>
     <row r="3">
@@ -4156,28 +4156,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.3067541521978</v>
+        <v>119.2336391345793</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.5076380188847</v>
+        <v>163.1407252807719</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.6704178290539</v>
+        <v>147.570803429466</v>
       </c>
       <c r="AD3" t="n">
-        <v>98306.7541521978</v>
+        <v>119233.6391345793</v>
       </c>
       <c r="AE3" t="n">
-        <v>134507.6380188847</v>
+        <v>163140.7252807719</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.838699817505368e-06</v>
+        <v>1.030516430934615e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.624674479166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>121670.4178290539</v>
+        <v>147570.803429466</v>
       </c>
     </row>
   </sheetData>
@@ -4453,28 +4453,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.8251837202006</v>
+        <v>177.6835244665805</v>
       </c>
       <c r="AB2" t="n">
-        <v>213.2068908878091</v>
+        <v>243.1144370189263</v>
       </c>
       <c r="AC2" t="n">
-        <v>192.8587244592883</v>
+        <v>219.9119363631658</v>
       </c>
       <c r="AD2" t="n">
-        <v>155825.1837202006</v>
+        <v>177683.5244665805</v>
       </c>
       <c r="AE2" t="n">
-        <v>213206.8908878091</v>
+        <v>243114.4370189263</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.824497304997656e-06</v>
+        <v>7.765051778955785e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.388020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>192858.7244592883</v>
+        <v>219911.9363631658</v>
       </c>
     </row>
     <row r="3">
@@ -4559,28 +4559,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.8726601339955</v>
+        <v>127.8162522263959</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.8596443673898</v>
+        <v>174.8838351511562</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.0344432207931</v>
+        <v>158.1931673753828</v>
       </c>
       <c r="AD3" t="n">
-        <v>105872.6601339955</v>
+        <v>127816.2522263959</v>
       </c>
       <c r="AE3" t="n">
-        <v>144859.6443673898</v>
+        <v>174883.8351511562</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.768120073049271e-06</v>
+        <v>9.680932238368703e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.518880208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>131034.4432207931</v>
+        <v>158193.1673753828</v>
       </c>
     </row>
     <row r="4">
@@ -4665,28 +4665,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>105.1739136692867</v>
+        <v>126.9469135610949</v>
       </c>
       <c r="AB4" t="n">
-        <v>143.9035886278573</v>
+        <v>173.6943676367768</v>
       </c>
       <c r="AC4" t="n">
-        <v>130.1696320992087</v>
+        <v>157.1172209711473</v>
       </c>
       <c r="AD4" t="n">
-        <v>105173.9136692867</v>
+        <v>126946.9135610949</v>
       </c>
       <c r="AE4" t="n">
-        <v>143903.5886278573</v>
+        <v>173694.3676367768</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.794721326781494e-06</v>
+        <v>9.734941980340788e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.499348958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>130169.6320992087</v>
+        <v>157117.2209711473</v>
       </c>
     </row>
   </sheetData>
@@ -4962,28 +4962,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.59082645073472</v>
+        <v>113.6838030447214</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.0550976856996</v>
+        <v>155.547194701144</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.8336988890686</v>
+        <v>140.7019887507683</v>
       </c>
       <c r="AD2" t="n">
-        <v>93590.82645073472</v>
+        <v>113683.8030447214</v>
       </c>
       <c r="AE2" t="n">
-        <v>128055.0976856996</v>
+        <v>155547.1947011439</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.7833952056523e-06</v>
+        <v>1.065168681090592e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.80859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>115833.6988890686</v>
+        <v>140701.9887507683</v>
       </c>
     </row>
     <row r="3">
@@ -5068,28 +5068,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.19789971387183</v>
+        <v>114.2908763078585</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.8857221065055</v>
+        <v>156.3778191219499</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.5850496809419</v>
+        <v>141.4533395426415</v>
       </c>
       <c r="AD3" t="n">
-        <v>94197.89971387184</v>
+        <v>114290.8763078585</v>
       </c>
       <c r="AE3" t="n">
-        <v>128885.7221065055</v>
+        <v>156377.8191219499</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.782611666399258e-06</v>
+        <v>1.064994202203345e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.80859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>116585.0496809419</v>
+        <v>141453.3395426415</v>
       </c>
     </row>
   </sheetData>
@@ -5365,28 +5365,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>281.9984321913926</v>
+        <v>317.6301231741681</v>
       </c>
       <c r="AB2" t="n">
-        <v>385.8426958170585</v>
+        <v>434.5955473789548</v>
       </c>
       <c r="AC2" t="n">
-        <v>349.0184104619024</v>
+        <v>393.1183582957883</v>
       </c>
       <c r="AD2" t="n">
-        <v>281998.4321913926</v>
+        <v>317630.1231741681</v>
       </c>
       <c r="AE2" t="n">
-        <v>385842.6958170586</v>
+        <v>434595.5473789548</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.680301923643021e-06</v>
+        <v>5.067817498164101e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.812174479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>349018.4104619024</v>
+        <v>393118.3582957882</v>
       </c>
     </row>
     <row r="3">
@@ -5471,28 +5471,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>167.053133952719</v>
+        <v>190.7223432618818</v>
       </c>
       <c r="AB3" t="n">
-        <v>228.5694677381377</v>
+        <v>260.954724126736</v>
       </c>
       <c r="AC3" t="n">
-        <v>206.7551185365386</v>
+        <v>236.0495715084121</v>
       </c>
       <c r="AD3" t="n">
-        <v>167053.133952719</v>
+        <v>190722.3432618818</v>
       </c>
       <c r="AE3" t="n">
-        <v>228569.4677381378</v>
+        <v>260954.724126736</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.873908272754815e-06</v>
+        <v>7.324645017702218e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.021809895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>206755.1185365386</v>
+        <v>236049.5715084121</v>
       </c>
     </row>
     <row r="4">
@@ -5577,28 +5577,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>134.0151422871502</v>
+        <v>157.7696029423335</v>
       </c>
       <c r="AB4" t="n">
-        <v>183.3654300080044</v>
+        <v>215.8673310492519</v>
       </c>
       <c r="AC4" t="n">
-        <v>165.8652907230893</v>
+        <v>195.2652559456751</v>
       </c>
       <c r="AD4" t="n">
-        <v>134015.1422871502</v>
+        <v>157769.6029423335</v>
       </c>
       <c r="AE4" t="n">
-        <v>183365.4300080044</v>
+        <v>215867.3310492519</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.295164210400445e-06</v>
+        <v>8.121140439794219e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.6279296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>165865.2907230893</v>
+        <v>195265.2559456751</v>
       </c>
     </row>
     <row r="5">
@@ -5683,28 +5683,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>121.9844911852942</v>
+        <v>145.5683596398854</v>
       </c>
       <c r="AB5" t="n">
-        <v>166.9045624155856</v>
+        <v>199.1730516819862</v>
       </c>
       <c r="AC5" t="n">
-        <v>150.9754252307129</v>
+        <v>180.1642551706477</v>
       </c>
       <c r="AD5" t="n">
-        <v>121984.4911852942</v>
+        <v>145568.3596398854</v>
       </c>
       <c r="AE5" t="n">
-        <v>166904.5624155856</v>
+        <v>199173.0516819862</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.531779679125734e-06</v>
+        <v>8.568524371494156e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.4375</v>
       </c>
       <c r="AH5" t="n">
-        <v>150975.4252307129</v>
+        <v>180164.2551706477</v>
       </c>
     </row>
     <row r="6">
@@ -5789,28 +5789,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>120.5278674400463</v>
+        <v>144.1117358946375</v>
       </c>
       <c r="AB6" t="n">
-        <v>164.9115455456341</v>
+        <v>197.1800348120347</v>
       </c>
       <c r="AC6" t="n">
-        <v>149.1726190936122</v>
+        <v>178.361449033547</v>
       </c>
       <c r="AD6" t="n">
-        <v>120527.8674400463</v>
+        <v>144111.7358946375</v>
       </c>
       <c r="AE6" t="n">
-        <v>164911.5455456341</v>
+        <v>197180.0348120347</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.559250811619326e-06</v>
+        <v>8.620465790748964e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.416341145833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>149172.6190936122</v>
+        <v>178361.449033547</v>
       </c>
     </row>
   </sheetData>
@@ -6086,28 +6086,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.65798422844722</v>
+        <v>120.8860694736999</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.4104976861864</v>
+        <v>165.4016533708371</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.4414958017888</v>
+        <v>149.6159517158487</v>
       </c>
       <c r="AD2" t="n">
-        <v>91657.98422844723</v>
+        <v>120886.0694736999</v>
       </c>
       <c r="AE2" t="n">
-        <v>125410.4976861864</v>
+        <v>165401.6533708371</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.682403125196255e-06</v>
+        <v>1.07347217064193e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.981119791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>113441.4958017888</v>
+        <v>149615.9517158487</v>
       </c>
     </row>
   </sheetData>
@@ -6383,28 +6383,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.0586144785311</v>
+        <v>233.1591456239299</v>
       </c>
       <c r="AB2" t="n">
-        <v>272.36077817568</v>
+        <v>319.0186292980496</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.3670477674258</v>
+        <v>288.5719390633967</v>
       </c>
       <c r="AD2" t="n">
-        <v>199058.6144785311</v>
+        <v>233159.1456239299</v>
       </c>
       <c r="AE2" t="n">
-        <v>272360.77817568</v>
+        <v>319018.6292980496</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.266725083057816e-06</v>
+        <v>6.402736016867684e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.957682291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>246367.0477674259</v>
+        <v>288571.9390633967</v>
       </c>
     </row>
     <row r="3">
@@ -6489,28 +6489,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.6411117235226</v>
+        <v>149.4316930568363</v>
       </c>
       <c r="AB3" t="n">
-        <v>173.2759560715857</v>
+        <v>204.4590349012971</v>
       </c>
       <c r="AC3" t="n">
-        <v>156.7387420184936</v>
+        <v>184.9457515704333</v>
       </c>
       <c r="AD3" t="n">
-        <v>126641.1117235226</v>
+        <v>149431.6930568363</v>
       </c>
       <c r="AE3" t="n">
-        <v>173275.9560715856</v>
+        <v>204459.0349012971</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.345648936913266e-06</v>
+        <v>8.517411859767719e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.727213541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>156738.7420184936</v>
+        <v>184945.7515704333</v>
       </c>
     </row>
     <row r="4">
@@ -6595,28 +6595,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>111.6707773750823</v>
+        <v>134.2907665078038</v>
       </c>
       <c r="AB4" t="n">
-        <v>152.7928841715204</v>
+        <v>183.742551226385</v>
       </c>
       <c r="AC4" t="n">
-        <v>138.210545752392</v>
+        <v>166.2064200216807</v>
       </c>
       <c r="AD4" t="n">
-        <v>111670.7773750823</v>
+        <v>134290.7665078038</v>
       </c>
       <c r="AE4" t="n">
-        <v>152792.8841715204</v>
+        <v>183742.551226385</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.696134992371566e-06</v>
+        <v>9.204359684771769e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.448893229166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>138210.545752392</v>
+        <v>166206.4200216807</v>
       </c>
     </row>
     <row r="5">
@@ -6701,28 +6701,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>111.9269166441284</v>
+        <v>134.5469057768499</v>
       </c>
       <c r="AB5" t="n">
-        <v>153.1433452194961</v>
+        <v>184.0930122743607</v>
       </c>
       <c r="AC5" t="n">
-        <v>138.5275592898242</v>
+        <v>166.5234335591129</v>
       </c>
       <c r="AD5" t="n">
-        <v>111926.9166441284</v>
+        <v>134546.9057768499</v>
       </c>
       <c r="AE5" t="n">
-        <v>153143.3452194961</v>
+        <v>184093.0122743607</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.695537912208945e-06</v>
+        <v>9.203189415904639e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.448893229166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>138527.5592898242</v>
+        <v>166523.4335591129</v>
       </c>
     </row>
   </sheetData>
@@ -6998,28 +6998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>243.0691580949182</v>
+        <v>277.8361976923427</v>
       </c>
       <c r="AB2" t="n">
-        <v>332.5779455597431</v>
+        <v>380.147742950632</v>
       </c>
       <c r="AC2" t="n">
-        <v>300.8371732116984</v>
+        <v>343.8669759041311</v>
       </c>
       <c r="AD2" t="n">
-        <v>243069.1580949182</v>
+        <v>277836.1976923427</v>
       </c>
       <c r="AE2" t="n">
-        <v>332577.9455597431</v>
+        <v>380147.742950632</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.963806814695505e-06</v>
+        <v>5.698520494808797e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.354817708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>300837.1732116984</v>
+        <v>343866.9759041311</v>
       </c>
     </row>
     <row r="3">
@@ -7104,28 +7104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.9596831111478</v>
+        <v>164.2514376431567</v>
       </c>
       <c r="AB3" t="n">
-        <v>192.8672571349118</v>
+        <v>224.7360632452787</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.4602768049058</v>
+        <v>203.2875687882598</v>
       </c>
       <c r="AD3" t="n">
-        <v>140959.6831111478</v>
+        <v>164251.4376431567</v>
       </c>
       <c r="AE3" t="n">
-        <v>192867.2571349118</v>
+        <v>224736.0632452787</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.093187159289315e-06</v>
+        <v>7.869983563248784e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.876953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>174460.2768049058</v>
+        <v>203287.5687882598</v>
       </c>
     </row>
     <row r="4">
@@ -7210,28 +7210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>121.617971175026</v>
+        <v>144.9097257070348</v>
       </c>
       <c r="AB4" t="n">
-        <v>166.4030735678152</v>
+        <v>198.2718796781821</v>
       </c>
       <c r="AC4" t="n">
-        <v>150.5217977747295</v>
+        <v>179.3490897580835</v>
       </c>
       <c r="AD4" t="n">
-        <v>121617.971175026</v>
+        <v>144909.7257070348</v>
       </c>
       <c r="AE4" t="n">
-        <v>166403.0735678152</v>
+        <v>198271.8796781821</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.517033862038973e-06</v>
+        <v>8.684914924598057e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.513997395833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>150521.7977747296</v>
+        <v>179349.0897580835</v>
       </c>
     </row>
     <row r="5">
@@ -7316,28 +7316,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>115.8032011764824</v>
+        <v>138.924363507899</v>
       </c>
       <c r="AB5" t="n">
-        <v>158.4470487262644</v>
+        <v>190.0824430617845</v>
       </c>
       <c r="AC5" t="n">
-        <v>143.3250847777029</v>
+        <v>171.9412414784058</v>
       </c>
       <c r="AD5" t="n">
-        <v>115803.2011764824</v>
+        <v>138924.363507899</v>
       </c>
       <c r="AE5" t="n">
-        <v>158447.0487262644</v>
+        <v>190082.4430617845</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.637937913432941e-06</v>
+        <v>8.917377516747378e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.421223958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>143325.0847777029</v>
+        <v>171941.2414784058</v>
       </c>
     </row>
   </sheetData>
@@ -7613,28 +7613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>340.6716863392391</v>
+        <v>376.8650013113271</v>
       </c>
       <c r="AB2" t="n">
-        <v>466.1220306234292</v>
+        <v>515.6433209046047</v>
       </c>
       <c r="AC2" t="n">
-        <v>421.6359982271072</v>
+        <v>466.4310460674147</v>
       </c>
       <c r="AD2" t="n">
-        <v>340671.6863392391</v>
+        <v>376865.0013113272</v>
       </c>
       <c r="AE2" t="n">
-        <v>466122.0306234292</v>
+        <v>515643.3209046047</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.42019460762785e-06</v>
+        <v>4.508638990903741e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.329752604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>421635.9982271072</v>
+        <v>466431.0460674147</v>
       </c>
     </row>
     <row r="3">
@@ -7719,28 +7719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>183.1012346748866</v>
+        <v>207.2016942076048</v>
       </c>
       <c r="AB3" t="n">
-        <v>250.5271871384328</v>
+        <v>283.5024991083163</v>
       </c>
       <c r="AC3" t="n">
-        <v>226.6172240151291</v>
+        <v>256.4454184917585</v>
       </c>
       <c r="AD3" t="n">
-        <v>183101.2346748866</v>
+        <v>207201.6942076048</v>
       </c>
       <c r="AE3" t="n">
-        <v>250527.1871384328</v>
+        <v>283502.4991083163</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.651373090167418e-06</v>
+        <v>6.802231123389459e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.1943359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>226617.2240151291</v>
+        <v>256445.4184917585</v>
       </c>
     </row>
     <row r="4">
@@ -7825,28 +7825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>145.7558502297821</v>
+        <v>169.9415611085208</v>
       </c>
       <c r="AB4" t="n">
-        <v>199.4295845785838</v>
+        <v>232.5215412011165</v>
       </c>
       <c r="AC4" t="n">
-        <v>180.3963049276402</v>
+        <v>210.3300116549818</v>
       </c>
       <c r="AD4" t="n">
-        <v>145755.8502297821</v>
+        <v>169941.5611085208</v>
       </c>
       <c r="AE4" t="n">
-        <v>199429.5845785838</v>
+        <v>232521.5412011165</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.108571153779803e-06</v>
+        <v>7.653956439061041e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.728841145833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>180396.3049276402</v>
+        <v>210330.0116549818</v>
       </c>
     </row>
     <row r="5">
@@ -7931,28 +7931,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>132.6433936515595</v>
+        <v>156.8291045302983</v>
       </c>
       <c r="AB5" t="n">
-        <v>181.4885430075116</v>
+        <v>214.5804996300444</v>
       </c>
       <c r="AC5" t="n">
-        <v>164.1675311836954</v>
+        <v>194.1012379110371</v>
       </c>
       <c r="AD5" t="n">
-        <v>132643.3936515595</v>
+        <v>156829.1045302983</v>
       </c>
       <c r="AE5" t="n">
-        <v>181488.5430075116</v>
+        <v>214580.4996300444</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.352228170390026e-06</v>
+        <v>8.107870980492436e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.518880208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>164167.5311836954</v>
+        <v>194101.2379110371</v>
       </c>
     </row>
     <row r="6">
@@ -8037,28 +8037,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>124.9936903290598</v>
+        <v>149.0088090072063</v>
       </c>
       <c r="AB6" t="n">
-        <v>171.0218814405803</v>
+        <v>203.8804262882662</v>
       </c>
       <c r="AC6" t="n">
-        <v>154.699793106657</v>
+        <v>184.4223645513476</v>
       </c>
       <c r="AD6" t="n">
-        <v>124993.6903290598</v>
+        <v>149008.8090072063</v>
       </c>
       <c r="AE6" t="n">
-        <v>171021.8814405803</v>
+        <v>203880.4262882662</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.491043967802186e-06</v>
+        <v>8.366474282389428e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.411458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>154699.793106657</v>
+        <v>184422.3645513476</v>
       </c>
     </row>
     <row r="7">
@@ -8143,28 +8143,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>125.0618654635266</v>
+        <v>149.0769841416731</v>
       </c>
       <c r="AB7" t="n">
-        <v>171.1151616672324</v>
+        <v>203.9737065149183</v>
       </c>
       <c r="AC7" t="n">
-        <v>154.7841707993971</v>
+        <v>184.5067422440876</v>
       </c>
       <c r="AD7" t="n">
-        <v>125061.8654635266</v>
+        <v>149076.9841416731</v>
       </c>
       <c r="AE7" t="n">
-        <v>171115.1616672324</v>
+        <v>203973.7065149183</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.488032370841379e-06</v>
+        <v>8.360863905670306e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.4130859375</v>
       </c>
       <c r="AH7" t="n">
-        <v>154784.1707993971</v>
+        <v>184506.7422440876</v>
       </c>
     </row>
   </sheetData>
@@ -8440,28 +8440,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>169.1179345236663</v>
+        <v>191.4442423564558</v>
       </c>
       <c r="AB2" t="n">
-        <v>231.3946189718787</v>
+        <v>261.9424583158719</v>
       </c>
       <c r="AC2" t="n">
-        <v>209.3106413016568</v>
+        <v>236.9430377328308</v>
       </c>
       <c r="AD2" t="n">
-        <v>169117.9345236663</v>
+        <v>191444.2423564558</v>
       </c>
       <c r="AE2" t="n">
-        <v>231394.6189718787</v>
+        <v>261942.4583158719</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.629305550845851e-06</v>
+        <v>7.274933377027976e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.5654296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>209310.6413016568</v>
+        <v>236943.0377328309</v>
       </c>
     </row>
     <row r="3">
@@ -8546,28 +8546,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.1693777940152</v>
+        <v>133.410344772233</v>
       </c>
       <c r="AB3" t="n">
-        <v>152.1068471445163</v>
+        <v>182.5379193663119</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.5899831363859</v>
+        <v>165.1167565356212</v>
       </c>
       <c r="AD3" t="n">
-        <v>111169.3777940152</v>
+        <v>133410.344772233</v>
       </c>
       <c r="AE3" t="n">
-        <v>152106.8471445163</v>
+        <v>182537.9193663119</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.659472008890464e-06</v>
+        <v>9.339899317351406e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.556315104166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>137589.9831363859</v>
+        <v>165116.7565356212</v>
       </c>
     </row>
     <row r="4">
@@ -8652,28 +8652,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>107.1477690854191</v>
+        <v>129.2181438630447</v>
       </c>
       <c r="AB4" t="n">
-        <v>146.6043046885634</v>
+        <v>176.8019651355121</v>
       </c>
       <c r="AC4" t="n">
-        <v>132.6125956095606</v>
+        <v>159.9282337261448</v>
       </c>
       <c r="AD4" t="n">
-        <v>107147.7690854191</v>
+        <v>129218.1438630447</v>
       </c>
       <c r="AE4" t="n">
-        <v>146604.3046885634</v>
+        <v>176801.9651355121</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.769025192212861e-06</v>
+        <v>9.559498383549075e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.474934895833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>132612.5956095606</v>
+        <v>159928.2337261448</v>
       </c>
     </row>
   </sheetData>
@@ -8949,28 +8949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.2439063779323</v>
+        <v>151.4491530456555</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.2054586618289</v>
+        <v>207.2194126620514</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.1977798001259</v>
+        <v>187.4426827519165</v>
       </c>
       <c r="AD2" t="n">
-        <v>130243.9063779323</v>
+        <v>151449.1530456555</v>
       </c>
       <c r="AE2" t="n">
-        <v>178205.4586618289</v>
+        <v>207219.4126620514</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.276141018303513e-06</v>
+        <v>8.94595443124276e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.036458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>161197.7798001259</v>
+        <v>187442.6827519166</v>
       </c>
     </row>
     <row r="3">
@@ -9055,28 +9055,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.4018219024292</v>
+        <v>121.692319916173</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.3742021426158</v>
+        <v>166.5048007954874</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.263401096065</v>
+        <v>150.6138162985678</v>
       </c>
       <c r="AD3" t="n">
-        <v>100401.8219024292</v>
+        <v>121692.319916173</v>
       </c>
       <c r="AE3" t="n">
-        <v>137374.2021426157</v>
+        <v>166504.8007954874</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.836337869879176e-06</v>
+        <v>1.011792127828322e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.5693359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>124263.401096065</v>
+        <v>150613.8162985678</v>
       </c>
     </row>
   </sheetData>
@@ -15821,28 +15821,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.4014453599826</v>
+        <v>117.9322157657703</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.2689545899714</v>
+        <v>161.3600604128214</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.5499526080925</v>
+        <v>145.9600827173334</v>
       </c>
       <c r="AD2" t="n">
-        <v>97401.44535998261</v>
+        <v>117932.2157657703</v>
       </c>
       <c r="AE2" t="n">
-        <v>133268.9545899714</v>
+        <v>161360.0604128214</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.765662182956416e-06</v>
+        <v>1.035986223360827e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.746744791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>120549.9526080925</v>
+        <v>145960.0827173334</v>
       </c>
     </row>
     <row r="3">
@@ -15927,28 +15927,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.5047307942171</v>
+        <v>117.0355012000048</v>
       </c>
       <c r="AB3" t="n">
-        <v>132.042030160837</v>
+        <v>160.1331359836871</v>
       </c>
       <c r="AC3" t="n">
-        <v>119.4401241244751</v>
+        <v>144.850254233716</v>
       </c>
       <c r="AD3" t="n">
-        <v>96504.7307942171</v>
+        <v>117035.5012000048</v>
       </c>
       <c r="AE3" t="n">
-        <v>132042.030160837</v>
+        <v>160133.1359836871</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.815910198053659e-06</v>
+        <v>1.046909417115126e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.707682291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>119440.1241244751</v>
+        <v>144850.254233716</v>
       </c>
     </row>
   </sheetData>
@@ -16224,28 +16224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.78496830190267</v>
+        <v>118.724471637963</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.5301958327156</v>
+        <v>162.4440598490172</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.4999455638111</v>
+        <v>146.9406267687418</v>
       </c>
       <c r="AD2" t="n">
-        <v>99784.96830190267</v>
+        <v>118724.471637963</v>
       </c>
       <c r="AE2" t="n">
-        <v>136530.1958327156</v>
+        <v>162444.0598490172</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.472777593050554e-06</v>
+        <v>1.063862210691254e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.285481770833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>123499.9455638111</v>
+        <v>146940.6267687418</v>
       </c>
     </row>
   </sheetData>
@@ -16521,28 +16521,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>226.8529962547707</v>
+        <v>249.8995983656286</v>
       </c>
       <c r="AB2" t="n">
-        <v>310.3902775234949</v>
+        <v>341.9236552758818</v>
       </c>
       <c r="AC2" t="n">
-        <v>280.7670650722351</v>
+        <v>309.2909415093178</v>
       </c>
       <c r="AD2" t="n">
-        <v>226852.9962547707</v>
+        <v>249899.5983656286</v>
       </c>
       <c r="AE2" t="n">
-        <v>310390.277523495</v>
+        <v>341923.6552758818</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.10555901387754e-06</v>
+        <v>6.026580105580337e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.1611328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>280767.0650722351</v>
+        <v>309290.9415093178</v>
       </c>
     </row>
     <row r="3">
@@ -16627,28 +16627,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.4394144263342</v>
+        <v>156.485927028641</v>
       </c>
       <c r="AB3" t="n">
-        <v>182.5776937495158</v>
+        <v>214.1109490323542</v>
       </c>
       <c r="AC3" t="n">
-        <v>165.1527349075158</v>
+        <v>193.6765005633719</v>
       </c>
       <c r="AD3" t="n">
-        <v>133439.4144263342</v>
+        <v>156485.927028641</v>
       </c>
       <c r="AE3" t="n">
-        <v>182577.6937495157</v>
+        <v>214110.9490323542</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.221890095223171e-06</v>
+        <v>8.192907860427455e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.797200520833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>165152.7349075158</v>
+        <v>193676.5005633719</v>
       </c>
     </row>
     <row r="4">
@@ -16733,28 +16733,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>115.6818305850395</v>
+        <v>138.5577509867541</v>
       </c>
       <c r="AB4" t="n">
-        <v>158.2809841285598</v>
+        <v>189.5808276365514</v>
       </c>
       <c r="AC4" t="n">
-        <v>143.17486915213</v>
+        <v>171.4874995253351</v>
       </c>
       <c r="AD4" t="n">
-        <v>115681.8305850395</v>
+        <v>138557.7509867541</v>
       </c>
       <c r="AE4" t="n">
-        <v>158280.9841285598</v>
+        <v>189580.8276365514</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.628007718676714e-06</v>
+        <v>8.981010865101901e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.463541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>143174.86915213</v>
+        <v>171487.4995253351</v>
       </c>
     </row>
     <row r="5">
@@ -16839,28 +16839,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>113.9232045177925</v>
+        <v>136.7991249195071</v>
       </c>
       <c r="AB5" t="n">
-        <v>155.8747543582472</v>
+        <v>187.1745978662388</v>
       </c>
       <c r="AC5" t="n">
-        <v>140.9982865739306</v>
+        <v>169.3109169471357</v>
       </c>
       <c r="AD5" t="n">
-        <v>113923.2045177925</v>
+        <v>136799.1249195071</v>
       </c>
       <c r="AE5" t="n">
-        <v>155874.7543582472</v>
+        <v>187174.5978662388</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.668284660478969e-06</v>
+        <v>9.059171420124173e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.4326171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>140998.2865739306</v>
+        <v>169310.9169471357</v>
       </c>
     </row>
   </sheetData>
@@ -17136,28 +17136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>317.0671736162441</v>
+        <v>352.942414382597</v>
       </c>
       <c r="AB2" t="n">
-        <v>433.8252949582215</v>
+        <v>482.9113820786663</v>
       </c>
       <c r="AC2" t="n">
-        <v>392.4216176850337</v>
+        <v>436.8229975434592</v>
       </c>
       <c r="AD2" t="n">
-        <v>317067.1736162441</v>
+        <v>352942.414382597</v>
       </c>
       <c r="AE2" t="n">
-        <v>433825.2949582215</v>
+        <v>482911.3820786664</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.542717277122027e-06</v>
+        <v>4.771134939956967e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.07421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>392421.6176850336</v>
+        <v>436822.9975434592</v>
       </c>
     </row>
     <row r="3">
@@ -17242,28 +17242,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>175.4154860279322</v>
+        <v>199.3038960901603</v>
       </c>
       <c r="AB3" t="n">
-        <v>240.0112067683752</v>
+        <v>272.6963832977719</v>
       </c>
       <c r="AC3" t="n">
-        <v>217.1048740523154</v>
+        <v>246.6706232076902</v>
       </c>
       <c r="AD3" t="n">
-        <v>175415.4860279323</v>
+        <v>199303.8960901603</v>
       </c>
       <c r="AE3" t="n">
-        <v>240011.2067683752</v>
+        <v>272696.3832977719</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.752726159397936e-06</v>
+        <v>7.041586203976049e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.1162109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>217104.8740523154</v>
+        <v>246670.6232076902</v>
       </c>
     </row>
     <row r="4">
@@ -17348,28 +17348,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>139.4272067811332</v>
+        <v>163.4008681893818</v>
       </c>
       <c r="AB4" t="n">
-        <v>190.7704554121027</v>
+        <v>223.5722765941486</v>
       </c>
       <c r="AC4" t="n">
-        <v>172.5635908956412</v>
+        <v>202.2348523017283</v>
       </c>
       <c r="AD4" t="n">
-        <v>139427.2067811332</v>
+        <v>163400.8681893818</v>
       </c>
       <c r="AE4" t="n">
-        <v>190770.4554121027</v>
+        <v>223572.2765941486</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.205850809454203e-06</v>
+        <v>7.891825776220666e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>172563.5908956412</v>
+        <v>202234.8523017283</v>
       </c>
     </row>
     <row r="5">
@@ -17454,28 +17454,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>127.2022235216128</v>
+        <v>151.0052927292693</v>
       </c>
       <c r="AB5" t="n">
-        <v>174.0436939882377</v>
+        <v>206.6121033954368</v>
       </c>
       <c r="AC5" t="n">
-        <v>157.4332081059075</v>
+        <v>186.8933342293436</v>
       </c>
       <c r="AD5" t="n">
-        <v>127202.2235216128</v>
+        <v>151005.2927292692</v>
       </c>
       <c r="AE5" t="n">
-        <v>174043.6939882378</v>
+        <v>206612.1033954368</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.442044998771491e-06</v>
+        <v>8.335018717648278e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.4765625</v>
       </c>
       <c r="AH5" t="n">
-        <v>157433.2081059075</v>
+        <v>186893.3342293436</v>
       </c>
     </row>
     <row r="6">
@@ -17560,28 +17560,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>122.5548091885868</v>
+        <v>146.3578783962432</v>
       </c>
       <c r="AB6" t="n">
-        <v>167.6848966683446</v>
+        <v>200.2533060755437</v>
       </c>
       <c r="AC6" t="n">
-        <v>151.6812854775949</v>
+        <v>181.141411601031</v>
       </c>
       <c r="AD6" t="n">
-        <v>122554.8091885868</v>
+        <v>146357.8783962432</v>
       </c>
       <c r="AE6" t="n">
-        <v>167684.8966683446</v>
+        <v>200253.3060755437</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.528589434551871e-06</v>
+        <v>8.497410024430915e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.409830729166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>151681.2854775949</v>
+        <v>181141.411601031</v>
       </c>
     </row>
     <row r="7">
@@ -17666,28 +17666,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>122.9528303314542</v>
+        <v>146.7558995391105</v>
       </c>
       <c r="AB7" t="n">
-        <v>168.229486755469</v>
+        <v>200.7978961626681</v>
       </c>
       <c r="AC7" t="n">
-        <v>152.1739006511413</v>
+        <v>181.6340267745773</v>
       </c>
       <c r="AD7" t="n">
-        <v>122952.8303314542</v>
+        <v>146755.8995391105</v>
       </c>
       <c r="AE7" t="n">
-        <v>168229.486755469</v>
+        <v>200797.8961626681</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.528304748907857e-06</v>
+        <v>8.496875842500709e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.411458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>152173.9006511413</v>
+        <v>181634.0267745773</v>
       </c>
     </row>
   </sheetData>
@@ -17963,28 +17963,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.85605931731156</v>
+        <v>126.2512973524397</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.2592215794265</v>
+        <v>172.7425948516741</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.350271309432</v>
+        <v>156.256284044833</v>
       </c>
       <c r="AD2" t="n">
-        <v>98856.05931731156</v>
+        <v>126251.2973524398</v>
       </c>
       <c r="AE2" t="n">
-        <v>135259.2215794266</v>
+        <v>172742.5948516741</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.019580409341307e-06</v>
+        <v>1.005266555968785e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.938151041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>122350.271309432</v>
+        <v>156256.284044833</v>
       </c>
     </row>
   </sheetData>
@@ -18260,28 +18260,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.083187578228</v>
+        <v>164.625830180893</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.7727296291748</v>
+        <v>225.2483236324424</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.0884550821735</v>
+        <v>203.7509397630346</v>
       </c>
       <c r="AD2" t="n">
-        <v>143083.187578228</v>
+        <v>164625.830180893</v>
       </c>
       <c r="AE2" t="n">
-        <v>195772.7296291747</v>
+        <v>225248.3236324424</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.03541103413825e-06</v>
+        <v>8.310055189312455e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.215494791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>177088.4550821735</v>
+        <v>203750.9397630346</v>
       </c>
     </row>
     <row r="3">
@@ -18366,28 +18366,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.342335571777</v>
+        <v>123.9702295204625</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.0292985544371</v>
+        <v>169.621537210354</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.6650988327942</v>
+        <v>153.4330957643676</v>
       </c>
       <c r="AD3" t="n">
-        <v>102342.335571777</v>
+        <v>123970.2295204625</v>
       </c>
       <c r="AE3" t="n">
-        <v>140029.2985544371</v>
+        <v>169621.537210354</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.82478893584876e-06</v>
+        <v>9.935608044509727e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.525390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>126665.0988327942</v>
+        <v>153433.0957643676</v>
       </c>
     </row>
     <row r="4">
@@ -18472,28 +18472,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>102.8182959652294</v>
+        <v>124.4461899139149</v>
       </c>
       <c r="AB4" t="n">
-        <v>140.680528562649</v>
+        <v>170.2727672185658</v>
       </c>
       <c r="AC4" t="n">
-        <v>127.2541763630296</v>
+        <v>154.022173294603</v>
       </c>
       <c r="AD4" t="n">
-        <v>102818.2959652294</v>
+        <v>124446.1899139149</v>
       </c>
       <c r="AE4" t="n">
-        <v>140680.528562649</v>
+        <v>170272.7672185658</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.822803210953686e-06</v>
+        <v>9.931518874080924e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.527018229166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>127254.1763630296</v>
+        <v>154022.173294603</v>
       </c>
     </row>
   </sheetData>
@@ -18769,28 +18769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.9492425855013</v>
+        <v>216.6478237172499</v>
       </c>
       <c r="AB2" t="n">
-        <v>250.3192248563182</v>
+        <v>296.4271102372286</v>
       </c>
       <c r="AC2" t="n">
-        <v>226.4291093613426</v>
+        <v>268.1365228743372</v>
       </c>
       <c r="AD2" t="n">
-        <v>182949.2425855013</v>
+        <v>216647.8237172499</v>
       </c>
       <c r="AE2" t="n">
-        <v>250319.2248563182</v>
+        <v>296427.1102372286</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.451150405713555e-06</v>
+        <v>6.837364351172554e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.74609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>226429.1093613426</v>
+        <v>268136.5228743372</v>
       </c>
     </row>
     <row r="3">
@@ -18875,28 +18875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.5876325109406</v>
+        <v>141.1102471684875</v>
       </c>
       <c r="AB3" t="n">
-        <v>162.2568305185091</v>
+        <v>193.0732655205812</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.7712663427593</v>
+        <v>174.6466240393816</v>
       </c>
       <c r="AD3" t="n">
-        <v>118587.6325109406</v>
+        <v>141110.2471684875</v>
       </c>
       <c r="AE3" t="n">
-        <v>162256.8305185091</v>
+        <v>193073.2655205812</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.507384757826657e-06</v>
+        <v>8.929959067898261e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.6328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>146771.2663427593</v>
+        <v>174646.6240393816</v>
       </c>
     </row>
     <row r="4">
@@ -18981,28 +18981,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>109.5121178625472</v>
+        <v>131.8641403195018</v>
       </c>
       <c r="AB4" t="n">
-        <v>149.8393109931349</v>
+        <v>180.42233422036</v>
       </c>
       <c r="AC4" t="n">
-        <v>135.5388574527847</v>
+        <v>163.2030798667559</v>
       </c>
       <c r="AD4" t="n">
-        <v>109512.1178625472</v>
+        <v>131864.1403195018</v>
       </c>
       <c r="AE4" t="n">
-        <v>149839.3109931349</v>
+        <v>180422.33422036</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.730364211411742e-06</v>
+        <v>9.371722418595047e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.4619140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>135538.8574527847</v>
+        <v>163203.0798667559</v>
       </c>
     </row>
   </sheetData>
